--- a/results/I1_R2_res_fix.xlsx
+++ b/results/I1_R2_res_fix.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STECCAGIUSEPPE\git\wm-stochastic\results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDC0C88-28B9-4844-B148-CA37CC85E4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="1536" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -24,20 +18,7 @@
     <sheet name="rho" sheetId="9" r:id="rId9"/>
     <sheet name="alpha" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -122,8 +103,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,21 +114,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -187,38 +153,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -256,7 +211,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -290,7 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -325,10 +279,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -501,16 +454,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,7 +469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -526,30 +477,23 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>9827.2692000000006</v>
-      </c>
-      <c r="C3">
-        <v>9429.1901248317845</v>
-      </c>
-      <c r="D3" s="2">
-        <f>(B3-C3)/C3</f>
-        <v>4.2217737673978427E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9767.343999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1.6999959945678711E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.06299996376037598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -557,44 +501,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>13179.58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12842.989</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>7331.489599999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6665.687</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>1135.1787999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>570.0419999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1050</v>
+        <v>1012</v>
       </c>
     </row>
   </sheetData>
@@ -603,14 +547,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -621,9 +565,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -632,9 +576,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -643,9 +587,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -654,9 +598,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -665,9 +609,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -682,14 +626,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -700,29 +644,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -733,29 +677,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -766,7 +710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -777,62 +721,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>10</v>
       </c>
@@ -849,14 +793,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -867,7 +811,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -878,18 +822,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -900,18 +844,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -922,7 +866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -933,7 +877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -944,18 +888,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -966,18 +910,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -988,7 +932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -999,7 +943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1016,14 +960,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1031,7 +975,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1039,23 +983,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1204.593325999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1261.2199559999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1143.349205999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1063,31 +1007,31 @@
         <v>960</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1145.007077999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1261.001666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1335.5423939999939</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1268.692917999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1269.422105999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1377.836532</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1095,31 +1039,31 @@
         <v>1021.258564</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1322.4059420000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1082.126622</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1205.3085919999969</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1321.30318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1084.0054119999991</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1127,20 +1071,20 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1383.7791560000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1440</v>
+        <v>1383.60026</v>
       </c>
     </row>
   </sheetData>
@@ -1149,14 +1093,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1170,12 +1114,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1184,12 +1128,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1198,12 +1142,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1212,12 +1156,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1226,12 +1170,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1240,13 +1184,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
       <c r="C7">
         <v>1</v>
       </c>
@@ -1254,13 +1198,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
       <c r="C8">
         <v>2</v>
       </c>
@@ -1268,13 +1212,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
       <c r="C9">
         <v>3</v>
       </c>
@@ -1282,13 +1226,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
         <v>6</v>
       </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
       <c r="C10">
         <v>4</v>
       </c>
@@ -1296,13 +1240,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
         <v>6</v>
       </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
       <c r="C11">
         <v>5</v>
       </c>
@@ -1310,59 +1254,73 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
         <v>6</v>
       </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>9</v>
-      </c>
       <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
         <v>6</v>
       </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>9</v>
-      </c>
       <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
         <v>6</v>
       </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>9</v>
-      </c>
       <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
         <v>6</v>
       </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15">
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
         <v>1</v>
       </c>
     </row>
@@ -1372,14 +1330,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1390,7 +1348,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1401,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1412,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1423,7 +1381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1434,7 +1392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1445,7 +1403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1453,10 +1411,10 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1464,10 +1422,10 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1475,10 +1433,10 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1486,10 +1444,10 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1497,10 +1455,10 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1508,10 +1466,10 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1519,10 +1477,10 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1530,10 +1488,10 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1541,10 +1499,10 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1552,10 +1510,10 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1566,7 +1524,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1577,7 +1535,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1588,7 +1546,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1599,7 +1557,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1610,7 +1568,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>4</v>
       </c>
@@ -1618,10 +1576,10 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1629,10 +1587,10 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>4</v>
       </c>
@@ -1640,10 +1598,10 @@
         <v>3</v>
       </c>
       <c r="C24">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>4</v>
       </c>
@@ -1651,10 +1609,10 @@
         <v>4</v>
       </c>
       <c r="C25">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>4</v>
       </c>
@@ -1662,10 +1620,10 @@
         <v>5</v>
       </c>
       <c r="C26">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>5</v>
       </c>
@@ -1673,10 +1631,10 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>5</v>
       </c>
@@ -1684,10 +1642,10 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>5</v>
       </c>
@@ -1695,10 +1653,10 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>5</v>
       </c>
@@ -1706,10 +1664,10 @@
         <v>4</v>
       </c>
       <c r="C30">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>5</v>
       </c>
@@ -1717,10 +1675,10 @@
         <v>5</v>
       </c>
       <c r="C31">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>6</v>
       </c>
@@ -1728,10 +1686,10 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>6</v>
       </c>
@@ -1739,10 +1697,10 @@
         <v>2</v>
       </c>
       <c r="C33">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>6</v>
       </c>
@@ -1750,10 +1708,10 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>6</v>
       </c>
@@ -1761,10 +1719,10 @@
         <v>4</v>
       </c>
       <c r="C35">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>6</v>
       </c>
@@ -1772,10 +1730,10 @@
         <v>5</v>
       </c>
       <c r="C36">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>7</v>
       </c>
@@ -1786,7 +1744,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>7</v>
       </c>
@@ -1797,7 +1755,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>7</v>
       </c>
@@ -1808,7 +1766,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>7</v>
       </c>
@@ -1819,7 +1777,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>7</v>
       </c>
@@ -1830,7 +1788,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>8</v>
       </c>
@@ -1838,10 +1796,10 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>8</v>
       </c>
@@ -1849,10 +1807,10 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>8</v>
       </c>
@@ -1860,10 +1818,10 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>8</v>
       </c>
@@ -1871,10 +1829,10 @@
         <v>4</v>
       </c>
       <c r="C45">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>8</v>
       </c>
@@ -1882,10 +1840,10 @@
         <v>5</v>
       </c>
       <c r="C46">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>9</v>
       </c>
@@ -1893,10 +1851,10 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>9</v>
       </c>
@@ -1904,10 +1862,10 @@
         <v>2</v>
       </c>
       <c r="C48">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>9</v>
       </c>
@@ -1915,10 +1873,10 @@
         <v>3</v>
       </c>
       <c r="C49">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>9</v>
       </c>
@@ -1926,10 +1884,10 @@
         <v>4</v>
       </c>
       <c r="C50">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>9</v>
       </c>
@@ -1937,10 +1895,10 @@
         <v>5</v>
       </c>
       <c r="C51">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>10</v>
       </c>
@@ -1948,10 +1906,10 @@
         <v>1</v>
       </c>
       <c r="C52">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>10</v>
       </c>
@@ -1959,10 +1917,10 @@
         <v>2</v>
       </c>
       <c r="C53">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>10</v>
       </c>
@@ -1970,10 +1928,10 @@
         <v>3</v>
       </c>
       <c r="C54">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>10</v>
       </c>
@@ -1981,10 +1939,10 @@
         <v>4</v>
       </c>
       <c r="C55">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>10</v>
       </c>
@@ -1992,10 +1950,10 @@
         <v>5</v>
       </c>
       <c r="C56">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>11</v>
       </c>
@@ -2006,7 +1964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>11</v>
       </c>
@@ -2017,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>11</v>
       </c>
@@ -2028,7 +1986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>11</v>
       </c>
@@ -2039,7 +1997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>11</v>
       </c>
@@ -2050,7 +2008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>12</v>
       </c>
@@ -2058,10 +2016,10 @@
         <v>1</v>
       </c>
       <c r="C62">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>12</v>
       </c>
@@ -2069,10 +2027,10 @@
         <v>2</v>
       </c>
       <c r="C63">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>12</v>
       </c>
@@ -2080,10 +2038,10 @@
         <v>3</v>
       </c>
       <c r="C64">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>12</v>
       </c>
@@ -2091,10 +2049,10 @@
         <v>4</v>
       </c>
       <c r="C65">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>12</v>
       </c>
@@ -2102,10 +2060,10 @@
         <v>5</v>
       </c>
       <c r="C66">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>13</v>
       </c>
@@ -2113,10 +2071,10 @@
         <v>1</v>
       </c>
       <c r="C67">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>13</v>
       </c>
@@ -2124,10 +2082,10 @@
         <v>2</v>
       </c>
       <c r="C68">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>13</v>
       </c>
@@ -2135,10 +2093,10 @@
         <v>3</v>
       </c>
       <c r="C69">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>13</v>
       </c>
@@ -2146,10 +2104,10 @@
         <v>4</v>
       </c>
       <c r="C70">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71">
         <v>13</v>
       </c>
@@ -2157,7 +2115,7 @@
         <v>5</v>
       </c>
       <c r="C71">
-        <v>569</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2166,14 +2124,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -2184,7 +2142,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>11</v>
       </c>
@@ -2195,7 +2153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>11</v>
       </c>
@@ -2206,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>11</v>
       </c>
@@ -2217,7 +2175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>11</v>
       </c>
@@ -2228,7 +2186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>11</v>
       </c>
@@ -2239,7 +2197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>12</v>
       </c>
@@ -2247,10 +2205,10 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>12</v>
       </c>
@@ -2258,10 +2216,10 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>12</v>
       </c>
@@ -2269,10 +2227,10 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>12</v>
       </c>
@@ -2280,10 +2238,10 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>12</v>
       </c>
@@ -2291,10 +2249,10 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>13</v>
       </c>
@@ -2302,10 +2260,10 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -2313,10 +2271,10 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2324,10 +2282,10 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2335,10 +2293,10 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>13</v>
       </c>
@@ -2346,7 +2304,7 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>169</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2355,14 +2313,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -2373,7 +2331,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2384,7 +2342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2395,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2406,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2417,7 +2375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2428,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2436,10 +2394,10 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2447,10 +2405,10 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -2458,10 +2416,10 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2469,10 +2427,10 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2480,10 +2438,10 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -2494,7 +2452,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2505,7 +2463,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2516,7 +2474,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2527,7 +2485,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2538,7 +2496,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>4</v>
       </c>
@@ -2546,10 +2504,10 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>4</v>
       </c>
@@ -2557,10 +2515,10 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>4</v>
       </c>
@@ -2568,10 +2526,10 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>4</v>
       </c>
@@ -2579,10 +2537,10 @@
         <v>4</v>
       </c>
       <c r="C20">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>4</v>
       </c>
@@ -2590,10 +2548,10 @@
         <v>5</v>
       </c>
       <c r="C21">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>5</v>
       </c>
@@ -2604,7 +2562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>5</v>
       </c>
@@ -2615,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>5</v>
       </c>
@@ -2626,7 +2584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>5</v>
       </c>
@@ -2637,7 +2595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>5</v>
       </c>
@@ -2648,7 +2606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>6</v>
       </c>
@@ -2659,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>6</v>
       </c>
@@ -2670,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>6</v>
       </c>
@@ -2681,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>6</v>
       </c>
@@ -2692,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>6</v>
       </c>
@@ -2703,7 +2661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>7</v>
       </c>
@@ -2714,7 +2672,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>7</v>
       </c>
@@ -2725,7 +2683,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>7</v>
       </c>
@@ -2736,7 +2694,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>7</v>
       </c>
@@ -2747,7 +2705,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>7</v>
       </c>
@@ -2758,7 +2716,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>8</v>
       </c>
@@ -2766,10 +2724,10 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>8</v>
       </c>
@@ -2777,10 +2735,10 @@
         <v>2</v>
       </c>
       <c r="C38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>8</v>
       </c>
@@ -2788,10 +2746,10 @@
         <v>3</v>
       </c>
       <c r="C39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>8</v>
       </c>
@@ -2799,10 +2757,10 @@
         <v>4</v>
       </c>
       <c r="C40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>8</v>
       </c>
@@ -2810,10 +2768,10 @@
         <v>5</v>
       </c>
       <c r="C41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>9</v>
       </c>
@@ -2824,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>9</v>
       </c>
@@ -2835,7 +2793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>9</v>
       </c>
@@ -2846,7 +2804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>9</v>
       </c>
@@ -2857,7 +2815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>9</v>
       </c>
@@ -2868,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>10</v>
       </c>
@@ -2876,10 +2834,10 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>10</v>
       </c>
@@ -2887,10 +2845,10 @@
         <v>2</v>
       </c>
       <c r="C48">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>10</v>
       </c>
@@ -2898,10 +2856,10 @@
         <v>3</v>
       </c>
       <c r="C49">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>10</v>
       </c>
@@ -2909,10 +2867,10 @@
         <v>4</v>
       </c>
       <c r="C50">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>10</v>
       </c>
@@ -2920,7 +2878,7 @@
         <v>5</v>
       </c>
       <c r="C51">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2929,14 +2887,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -2947,9 +2905,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2958,9 +2916,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2969,9 +2927,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -2980,9 +2938,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2991,9 +2949,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -3002,102 +2960,113 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
         <v>6</v>
       </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
         <v>6</v>
       </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>9</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>9</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
         <v>1</v>
       </c>
     </row>
